--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_242.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_242.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.120843989769821</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(45.962142, 51.024092)]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E'], ['C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(42.394399, 50.173083)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:55.680000', '0:01:02.280000'), ('0:01:22.500000', '0:01:30.740000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:09.860000', '0:01:13.740000'), ('0:00:07.960000', '0:00:13.120000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.082579185520362</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab/5', 'Eb', 'Bb/3']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.014, 24.195)]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(20.867, 26.66)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:19.420000', '0:01:26.020000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:11.420000', '0:00:19.140000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:15.660000', '0:00:39.960000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2318840579710145</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(43.54, 60.0)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:08.740000', '0:00:17.660000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.04766708701134931</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B'], ['A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2976190476190476</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.12, 11.62), (72.52, 83.28), (68.8, 76.2)]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1), (49.56, 55.72), (40.64, 47.33)]</t>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1753846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'B']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.72, 6.88)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.421269, 22.168299)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4047619047619048</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['E', 'F#', 'B', 'B', 'E/5', 'B', 'B', 'E/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98), (235.32, 237.58)]</t>
+          <t>[['C', 'D', 'G', 'G', 'C', 'G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(19.14, 22.24), (8.02, 15.1)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:52.727278', '0:01:10.444104')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:04.987052', '0:00:12.870226')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_222</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08076923076923077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'B:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.64, 14.0)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.411247, 13.974784)]</t>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.425</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1380952380952381</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.341609, 29.484104)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.129454, 8.597755)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(15.36, 45.82)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.02, 45.3)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.995918, 49.466575)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(22.32, 26.18)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(63.84, 67.54)]</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1180555555555556</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'A:7', 'D'], ['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj/G', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.609, 32.201), (6.536, 9.774)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.66, 34.24), (9.54, 11.42)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.56, 17.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.3, 19.52)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
